--- a/Construction.xlsx
+++ b/Construction.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="26">
   <si>
     <t>Berlin</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
   </si>
 </sst>
 </file>
@@ -442,15 +445,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D337"/>
+  <dimension ref="A1:D385"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A375" workbookViewId="0">
+      <selection activeCell="A384" sqref="A384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="12.140625" customWidth="1"/>
     <col min="3" max="4" width="9.140625" customWidth="1"/>
     <col min="6" max="13" width="9.140625" customWidth="1"/>
@@ -5174,6 +5177,678 @@
         <v>13</v>
       </c>
     </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>25</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D338" s="2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>25</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D339" s="2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>25</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D340" s="2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>25</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D341" s="2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>25</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D342" s="2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>25</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D343" s="2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>25</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D344" s="2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>25</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D345" s="2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>25</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D346" s="2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>25</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D347" s="2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>25</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D348" s="2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>25</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D349" s="2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>25</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C350" s="4">
+        <v>2021</v>
+      </c>
+      <c r="D350" s="2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>25</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C351" s="4">
+        <v>2021</v>
+      </c>
+      <c r="D351" s="2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>25</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C352" s="4">
+        <v>2021</v>
+      </c>
+      <c r="D352" s="2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>25</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C353" s="4">
+        <v>2021</v>
+      </c>
+      <c r="D353" s="2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>25</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C354" s="4">
+        <v>2021</v>
+      </c>
+      <c r="D354" s="2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>25</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C355" s="4">
+        <v>2021</v>
+      </c>
+      <c r="D355" s="2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>25</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C356" s="4">
+        <v>2021</v>
+      </c>
+      <c r="D356" s="2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>25</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C357" s="4">
+        <v>2021</v>
+      </c>
+      <c r="D357" s="2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>25</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C358" s="4">
+        <v>2021</v>
+      </c>
+      <c r="D358" s="2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>25</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C359" s="4">
+        <v>2021</v>
+      </c>
+      <c r="D359" s="2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>25</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C360" s="4">
+        <v>2021</v>
+      </c>
+      <c r="D360" s="2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>25</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C361" s="4">
+        <v>2021</v>
+      </c>
+      <c r="D361" s="2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>25</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C362" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D362" s="2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>25</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C363" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D363" s="2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>25</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C364" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D364" s="2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>25</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C365" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D365" s="2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>25</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C366" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D366" s="2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>25</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C367" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D367" s="2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>25</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C368" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D368" s="2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>25</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C369" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D369" s="2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>25</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C370" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D370" s="2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>25</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C371" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D371" s="2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>25</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C372" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D372" s="2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>25</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C373" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D373" s="2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>25</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C374" s="4">
+        <v>2023</v>
+      </c>
+      <c r="D374" s="2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>25</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C375" s="4">
+        <v>2023</v>
+      </c>
+      <c r="D375" s="2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>25</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C376" s="4">
+        <v>2023</v>
+      </c>
+      <c r="D376" s="2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>25</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C377" s="4">
+        <v>2023</v>
+      </c>
+      <c r="D377" s="2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>25</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C378" s="4">
+        <v>2023</v>
+      </c>
+      <c r="D378" s="2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>25</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C379" s="4">
+        <v>2023</v>
+      </c>
+      <c r="D379" s="2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>25</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C380" s="4">
+        <v>2023</v>
+      </c>
+      <c r="D380" s="2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>25</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C381" s="4">
+        <v>2023</v>
+      </c>
+      <c r="D381" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>25</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C382" s="4">
+        <v>2023</v>
+      </c>
+      <c r="D382" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>25</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C383" s="4">
+        <v>2023</v>
+      </c>
+      <c r="D383" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>25</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C384" s="4">
+        <v>2023</v>
+      </c>
+      <c r="D384" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>25</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C385" s="4">
+        <v>2023</v>
+      </c>
+      <c r="D385" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
